--- a/statistics/HistoricalDistanceData/historical_distance/Q18758263-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q18758263-en.xlsx
@@ -31,81 +31,81 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Candles, flowers and toys in Yerevan to honor Seryozha Avetisyan (PHOTO)</t>
+  </si>
+  <si>
+    <t>Protesters Try To Burn Russian Flag As Armenians Mourn Family</t>
+  </si>
+  <si>
+    <t>Georgia shares pain of Gyumri tragedy</t>
+  </si>
+  <si>
     <t>6-month-old Seryozha Avetisyan dies (PHOTO)</t>
   </si>
   <si>
+    <t>I am deeply shocked by murder of innocent people</t>
+  </si>
+  <si>
+    <t>Armenian leader extends condolences on death of Seryozha Avetisyan</t>
+  </si>
+  <si>
+    <t>Suspect in Gyumri Killings Detained at Turkish Border</t>
+  </si>
+  <si>
+    <t>Appeals Court Upholds Life Sentence for Russian Soldier Convicted of Murder of Armenian Family</t>
+  </si>
+  <si>
     <t>Armenia: Murder Case Strains Relations with Moscow</t>
   </si>
   <si>
-    <t>Suspect in Gyumri Killings Detained at Turkish Border</t>
-  </si>
-  <si>
-    <t>Georgia shares pain of Gyumri tragedy</t>
-  </si>
-  <si>
-    <t>Appeals Court Upholds Life Sentence for Russian Soldier Convicted of Murder of Armenian Family</t>
-  </si>
-  <si>
-    <t>Armenian leader extends condolences on death of Seryozha Avetisyan</t>
-  </si>
-  <si>
-    <t>I am deeply shocked by murder of innocent people</t>
-  </si>
-  <si>
-    <t>Protesters Try To Burn Russian Flag As Armenians Mourn Family</t>
-  </si>
-  <si>
-    <t>Candles, flowers and toys in Yerevan to honor Seryozha Avetisyan (PHOTO)</t>
+    <t>Gyumri Family Murder Death Toll Rises to 7: Little Seryozha succumbs to stab wounds in hospital</t>
+  </si>
+  <si>
+    <t>Lithuanian Ambassador offers condolences on Gyumri tragedy | ARMENPRESS Armenian News Agency</t>
+  </si>
+  <si>
+    <t>Shock and Questions: Gyumri mourns murders as it looks for reasons</t>
+  </si>
+  <si>
+    <t>Lavrov on Gyumri Murders: Neither Armenian nor Russian governments wish to politicize tragedy</t>
+  </si>
+  <si>
+    <t>Citizens of Gyumri have organized a candle-lighting ceremony in front of the Avetisyans' house | ARMENPRESS Armenian News Agency</t>
   </si>
   <si>
     <t>Deputy police chief provided details on investigation into crime in Gyumri | ARMENPRESS Armenian News Agency</t>
   </si>
   <si>
-    <t>Citizens of Gyumri have organized a candle-lighting ceremony in front of the Avetisyans' house | ARMENPRESS Armenian News Agency</t>
-  </si>
-  <si>
-    <t>Shock and Questions: Gyumri mourns murders as it looks for reasons</t>
+    <t>Citizens of Gyumri gathered near Russian military base, will wait one day for prosecutor’s response | ARMENPRESS Armenian News Agency</t>
   </si>
   <si>
     <t>Whole Gyumri mourns with Avetisyans’ relatives | ARMENPRESS Armenian News Agency</t>
   </si>
   <si>
-    <t>Gyumri Family Murder Death Toll Rises to 7: Little Seryozha succumbs to stab wounds in hospital</t>
-  </si>
-  <si>
-    <t>Lithuanian Ambassador offers condolences on Gyumri tragedy | ARMENPRESS Armenian News Agency</t>
-  </si>
-  <si>
-    <t>Citizens of Gyumri gathered near Russian military base, will wait one day for prosecutor’s response | ARMENPRESS Armenian News Agency</t>
-  </si>
-  <si>
-    <t>Lavrov on Gyumri Murders: Neither Armenian nor Russian governments wish to politicize tragedy</t>
-  </si>
-  <si>
     <t>2020-09-08T00:07:18UTC</t>
   </si>
   <si>
+    <t>2015-01-15T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-09-08T09:14:23UTC</t>
+  </si>
+  <si>
+    <t>2015-01-12T15:10:19UTC</t>
+  </si>
+  <si>
+    <t>2016-12-19T15:08:54UTC</t>
+  </si>
+  <si>
     <t>2015-01-26T00:00:00UTC</t>
   </si>
   <si>
-    <t>2015-01-12T15:10:19UTC</t>
-  </si>
-  <si>
-    <t>2020-09-08T09:14:23UTC</t>
-  </si>
-  <si>
-    <t>2016-12-19T15:08:54UTC</t>
-  </si>
-  <si>
-    <t>2015-01-15T00:00:00UTC</t>
+    <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2015-01-07T00:00:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -118,55 +118,55 @@
     <t>day_0</t>
   </si>
   <si>
+    <t>http://news.am/eng/news/248546.html</t>
+  </si>
+  <si>
+    <t>http://www.rferl.org/content/protesters-russian-embassy-yerevan-guymri-killing/26795585.html</t>
+  </si>
+  <si>
+    <t>http://news.am/eng/news/252921.html</t>
+  </si>
+  <si>
     <t>http://news.am/eng/news/248514.html</t>
   </si>
   <si>
+    <t>http://news.am/eng/news/248100.html</t>
+  </si>
+  <si>
+    <t>http://news.am/eng/news/248520.html</t>
+  </si>
+  <si>
+    <t>http://asbarez.com/130664/suspect-in-gyumri-killings-detained-at-turkish-border/</t>
+  </si>
+  <si>
+    <t>http://epress.am/en/2016/12/19/appeals-court-upholds-life-sentence-for-russian-soldier-convicted-of-murder-of-armenian-family.html</t>
+  </si>
+  <si>
     <t>https://iwpr.net/global-voices/armenia-murder-case-strains-relations-moscow</t>
   </si>
   <si>
-    <t>http://asbarez.com/130664/suspect-in-gyumri-killings-detained-at-turkish-border/</t>
-  </si>
-  <si>
-    <t>http://news.am/eng/news/252921.html</t>
-  </si>
-  <si>
-    <t>http://epress.am/en/2016/12/19/appeals-court-upholds-life-sentence-for-russian-soldier-convicted-of-murder-of-armenian-family.html</t>
-  </si>
-  <si>
-    <t>http://news.am/eng/news/248520.html</t>
-  </si>
-  <si>
-    <t>http://news.am/eng/news/248100.html</t>
-  </si>
-  <si>
-    <t>http://www.rferl.org/content/protesters-russian-embassy-yerevan-guymri-killing/26795585.html</t>
-  </si>
-  <si>
-    <t>http://news.am/eng/news/248546.html</t>
+    <t>http://armenianow.com/news/59926/armenia_gyumri_family_murder_little_seryozha_dies</t>
+  </si>
+  <si>
+    <t>http://armenpress.am/eng/news/790437/lithuanian-ambassador-offers-condolences-on-gyumri-tragedy.html</t>
+  </si>
+  <si>
+    <t>http://armenianow.com/society/59747/murder_in_gyumri_valeri_permyakov_russian_military_base_in_armenia</t>
+  </si>
+  <si>
+    <t>http://armenianow.com/news/60004/gyumri_murders_sergey_lavrov_valeri_permyakov</t>
+  </si>
+  <si>
+    <t>http://armenpress.am/eng/news/790829/citizens-of-gyumri-have-organized-a-candle-lighting-ceremony-in-front-of-the-avetisyans-house.html</t>
   </si>
   <si>
     <t>http://armenpress.am/eng/news/790057/deputy-police-chief-provided-details-on-investigation-into-crime-in-gyumri.html</t>
   </si>
   <si>
-    <t>http://armenpress.am/eng/news/790829/citizens-of-gyumri-have-organized-a-candle-lighting-ceremony-in-front-of-the-avetisyans-house.html</t>
-  </si>
-  <si>
-    <t>http://armenianow.com/society/59747/murder_in_gyumri_valeri_permyakov_russian_military_base_in_armenia</t>
+    <t>http://armenpress.am/eng/news/790330/citizens-of-gyumri-gathered-near-russian-military-base-will-wait-one-day-for-prosecutor%E2%80%99s-response.html</t>
   </si>
   <si>
     <t>http://armenpress.am/eng/news/790270/whole-gyumri-mourns-with-avetisyans%E2%80%99-relatives.html</t>
-  </si>
-  <si>
-    <t>http://armenianow.com/news/59926/armenia_gyumri_family_murder_little_seryozha_dies</t>
-  </si>
-  <si>
-    <t>http://armenpress.am/eng/news/790437/lithuanian-ambassador-offers-condolences-on-gyumri-tragedy.html</t>
-  </si>
-  <si>
-    <t>http://armenpress.am/eng/news/790330/citizens-of-gyumri-gathered-near-russian-military-base-will-wait-one-day-for-prosecutor%E2%80%99s-response.html</t>
-  </si>
-  <si>
-    <t>http://armenianow.com/news/60004/gyumri_murders_sergey_lavrov_valeri_permyakov</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
@@ -602,10 +602,10 @@
         <v>24</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2066</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -616,7 +616,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2066</v>
@@ -633,10 +633,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>707</v>
+        <v>2066</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
@@ -667,13 +667,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>2066</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
@@ -684,13 +684,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>707</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>41</v>
@@ -701,13 +701,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>2066</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
@@ -735,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -752,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -803,7 +803,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -820,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
